--- a/Final-s/1-layer/test-solidos-00/results.xlsx
+++ b/Final-s/1-layer/test-solidos-00/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z6"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,105 +461,55 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>model_11_9_0</t>
+          <t>model_11_8_0</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>model_11_9_1</t>
+          <t>model_11_8_1</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>model_11_8_0</t>
+          <t>model_11_7_4</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>model_11_9_2</t>
+          <t>model_11_8_2</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>model_11_8_1</t>
+          <t>model_11_7_5</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>model_11_8_3</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>model_11_7_6</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>model_11_7_7</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>model_11_7_8</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>model_11_7_7</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>model_11_8_2</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>model_11_7_6</t>
-        </is>
-      </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>model_11_7_5</t>
+          <t>media</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>model_11_8_3</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>model_11_7_4</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>model_11_9_3</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>model_11_8_4</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>model_11_7_3</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>model_11_7_2</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>model_11_7_1</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>model_11_9_4</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>model_11_7_0</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>media</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>desvio padrao</t>
         </is>
@@ -582,67 +532,37 @@
         <v>27.1</v>
       </c>
       <c r="F2" t="n">
-        <v>9.718876838684082</v>
+        <v>9.473872184753418</v>
       </c>
       <c r="G2" t="n">
-        <v>9.776655197143555</v>
+        <v>9.465688705444336</v>
       </c>
       <c r="H2" t="n">
-        <v>9.473872184753418</v>
+        <v>9.400893211364746</v>
       </c>
       <c r="I2" t="n">
-        <v>9.828335762023926</v>
+        <v>9.458608627319336</v>
       </c>
       <c r="J2" t="n">
-        <v>9.465688705444336</v>
+        <v>9.410928726196289</v>
       </c>
       <c r="K2" t="n">
+        <v>9.452462196350098</v>
+      </c>
+      <c r="L2" t="n">
+        <v>9.419816017150879</v>
+      </c>
+      <c r="M2" t="n">
+        <v>9.427685737609863</v>
+      </c>
+      <c r="N2" t="n">
         <v>9.43468189239502</v>
       </c>
-      <c r="L2" t="n">
-        <v>9.427685737609863</v>
-      </c>
-      <c r="M2" t="n">
-        <v>9.458608627319336</v>
-      </c>
-      <c r="N2" t="n">
-        <v>9.419816017150879</v>
-      </c>
       <c r="O2" t="n">
-        <v>9.410928726196289</v>
+        <v>9.43829345703125</v>
       </c>
       <c r="P2" t="n">
-        <v>9.452462196350098</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>9.400893211364746</v>
-      </c>
-      <c r="R2" t="n">
-        <v>9.874567031860352</v>
-      </c>
-      <c r="S2" t="n">
-        <v>9.447120666503906</v>
-      </c>
-      <c r="T2" t="n">
-        <v>9.389528274536133</v>
-      </c>
-      <c r="U2" t="n">
-        <v>9.376642227172852</v>
-      </c>
-      <c r="V2" t="n">
-        <v>9.361974716186523</v>
-      </c>
-      <c r="W2" t="n">
-        <v>9.915929794311523</v>
-      </c>
-      <c r="X2" t="n">
-        <v>9.345234870910645</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>9.525235176086426</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.189470186829567</v>
+        <v>0.02560369856655598</v>
       </c>
     </row>
     <row r="3">
@@ -662,67 +582,37 @@
         <v>25.4</v>
       </c>
       <c r="F3" t="n">
-        <v>46.39596557617188</v>
+        <v>46.53610992431641</v>
       </c>
       <c r="G3" t="n">
-        <v>46.39187240600586</v>
+        <v>46.52391052246094</v>
       </c>
       <c r="H3" t="n">
-        <v>46.53610992431641</v>
+        <v>46.63646697998047</v>
       </c>
       <c r="I3" t="n">
-        <v>46.38823318481445</v>
+        <v>46.51280212402344</v>
       </c>
       <c r="J3" t="n">
-        <v>46.52391052246094</v>
+        <v>46.62683868408203</v>
       </c>
       <c r="K3" t="n">
+        <v>46.50268173217773</v>
+      </c>
+      <c r="L3" t="n">
+        <v>46.61812210083008</v>
+      </c>
+      <c r="M3" t="n">
+        <v>46.61020278930664</v>
+      </c>
+      <c r="N3" t="n">
         <v>46.60304641723633</v>
       </c>
-      <c r="L3" t="n">
-        <v>46.61020278930664</v>
-      </c>
-      <c r="M3" t="n">
-        <v>46.51280212402344</v>
-      </c>
-      <c r="N3" t="n">
-        <v>46.61812210083008</v>
-      </c>
       <c r="O3" t="n">
-        <v>46.62683868408203</v>
+        <v>46.57446670532227</v>
       </c>
       <c r="P3" t="n">
-        <v>46.50268173217773</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>46.63646697998047</v>
-      </c>
-      <c r="R3" t="n">
-        <v>46.38498306274414</v>
-      </c>
-      <c r="S3" t="n">
-        <v>46.49349975585938</v>
-      </c>
-      <c r="T3" t="n">
-        <v>46.64707183837891</v>
-      </c>
-      <c r="U3" t="n">
-        <v>46.65873718261719</v>
-      </c>
-      <c r="V3" t="n">
-        <v>46.67153167724609</v>
-      </c>
-      <c r="W3" t="n">
-        <v>46.38205337524414</v>
-      </c>
-      <c r="X3" t="n">
-        <v>46.68556594848633</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>46.54051208496094</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0.1093333512544632</v>
+        <v>0.05427855625748634</v>
       </c>
     </row>
     <row r="4">
@@ -742,67 +632,37 @@
         <v>25.7</v>
       </c>
       <c r="F4" t="n">
-        <v>35.87102127075195</v>
+        <v>35.9854736328125</v>
       </c>
       <c r="G4" t="n">
-        <v>35.87601470947266</v>
+        <v>35.97167587280273</v>
       </c>
       <c r="H4" t="n">
-        <v>35.9854736328125</v>
+        <v>36.14797973632812</v>
       </c>
       <c r="I4" t="n">
-        <v>35.88063049316406</v>
+        <v>35.95900344848633</v>
       </c>
       <c r="J4" t="n">
-        <v>35.97167587280273</v>
+        <v>36.131103515625</v>
       </c>
       <c r="K4" t="n">
+        <v>35.94737243652344</v>
+      </c>
+      <c r="L4" t="n">
+        <v>36.11593246459961</v>
+      </c>
+      <c r="M4" t="n">
+        <v>36.1022834777832</v>
+      </c>
+      <c r="N4" t="n">
         <v>36.09001159667969</v>
       </c>
-      <c r="L4" t="n">
-        <v>36.1022834777832</v>
-      </c>
-      <c r="M4" t="n">
-        <v>35.95900344848633</v>
-      </c>
-      <c r="N4" t="n">
-        <v>36.11593246459961</v>
-      </c>
       <c r="O4" t="n">
-        <v>36.131103515625</v>
+        <v>36.05009460449219</v>
       </c>
       <c r="P4" t="n">
-        <v>35.94737243652344</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>36.14797973632812</v>
-      </c>
-      <c r="R4" t="n">
-        <v>35.8848762512207</v>
-      </c>
-      <c r="S4" t="n">
-        <v>35.93672943115234</v>
-      </c>
-      <c r="T4" t="n">
-        <v>36.16674041748047</v>
-      </c>
-      <c r="U4" t="n">
-        <v>36.18760681152344</v>
-      </c>
-      <c r="V4" t="n">
-        <v>36.21081161499023</v>
-      </c>
-      <c r="W4" t="n">
-        <v>35.8887825012207</v>
-      </c>
-      <c r="X4" t="n">
-        <v>36.23661804199219</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>36.03109359741211</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0.1285610198974609</v>
+        <v>0.0821358785033226</v>
       </c>
     </row>
     <row r="5">
@@ -822,67 +682,37 @@
         <v>25.4</v>
       </c>
       <c r="F5" t="n">
-        <v>56.04095458984375</v>
+        <v>56.08396530151367</v>
       </c>
       <c r="G5" t="n">
-        <v>56.02635955810547</v>
+        <v>56.08769607543945</v>
       </c>
       <c r="H5" t="n">
-        <v>56.08396530151367</v>
+        <v>56.05327987670898</v>
       </c>
       <c r="I5" t="n">
-        <v>56.01327133178711</v>
+        <v>56.09108734130859</v>
       </c>
       <c r="J5" t="n">
-        <v>56.08769607543945</v>
+        <v>56.05623245239258</v>
       </c>
       <c r="K5" t="n">
+        <v>56.09416198730469</v>
+      </c>
+      <c r="L5" t="n">
+        <v>56.05888748168945</v>
+      </c>
+      <c r="M5" t="n">
+        <v>56.06130218505859</v>
+      </c>
+      <c r="N5" t="n">
         <v>56.0634765625</v>
       </c>
-      <c r="L5" t="n">
-        <v>56.06130218505859</v>
-      </c>
-      <c r="M5" t="n">
-        <v>56.09108734130859</v>
-      </c>
-      <c r="N5" t="n">
-        <v>56.05888748168945</v>
-      </c>
       <c r="O5" t="n">
-        <v>56.05623245239258</v>
+        <v>56.07223510742188</v>
       </c>
       <c r="P5" t="n">
-        <v>56.09416198730469</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>56.05327987670898</v>
-      </c>
-      <c r="R5" t="n">
-        <v>56.00155639648438</v>
-      </c>
-      <c r="S5" t="n">
-        <v>56.09693145751953</v>
-      </c>
-      <c r="T5" t="n">
-        <v>56.05000305175781</v>
-      </c>
-      <c r="U5" t="n">
-        <v>56.04635620117188</v>
-      </c>
-      <c r="V5" t="n">
-        <v>56.04230117797852</v>
-      </c>
-      <c r="W5" t="n">
-        <v>55.99104309082031</v>
-      </c>
-      <c r="X5" t="n">
-        <v>56.03778076171875</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>56.05245208740234</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0.03052623197436333</v>
+        <v>0.01659299246966839</v>
       </c>
     </row>
     <row r="6">
@@ -902,67 +732,37 @@
         <v>28.5</v>
       </c>
       <c r="F6" t="n">
-        <v>23.98527717590332</v>
+        <v>23.70670127868652</v>
       </c>
       <c r="G6" t="n">
-        <v>23.99647903442383</v>
+        <v>23.73043251037598</v>
       </c>
       <c r="H6" t="n">
-        <v>23.70670127868652</v>
+        <v>23.95262908935547</v>
       </c>
       <c r="I6" t="n">
-        <v>24.00677299499512</v>
+        <v>23.75191497802734</v>
       </c>
       <c r="J6" t="n">
-        <v>23.73043251037598</v>
+        <v>23.92218971252441</v>
       </c>
       <c r="K6" t="n">
+        <v>23.7713508605957</v>
+      </c>
+      <c r="L6" t="n">
+        <v>23.89469337463379</v>
+      </c>
+      <c r="M6" t="n">
+        <v>23.86983489990234</v>
+      </c>
+      <c r="N6" t="n">
         <v>23.8473949432373</v>
       </c>
-      <c r="L6" t="n">
-        <v>23.86983489990234</v>
-      </c>
-      <c r="M6" t="n">
-        <v>23.75191497802734</v>
-      </c>
-      <c r="N6" t="n">
-        <v>23.89469337463379</v>
-      </c>
       <c r="O6" t="n">
-        <v>23.92218971252441</v>
+        <v>23.82746124267578</v>
       </c>
       <c r="P6" t="n">
-        <v>23.7713508605957</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>23.95262908935547</v>
-      </c>
-      <c r="R6" t="n">
-        <v>24.01621627807617</v>
-      </c>
-      <c r="S6" t="n">
-        <v>23.78892135620117</v>
-      </c>
-      <c r="T6" t="n">
-        <v>23.98630523681641</v>
-      </c>
-      <c r="U6" t="n">
-        <v>24.02351570129395</v>
-      </c>
-      <c r="V6" t="n">
-        <v>24.06466484069824</v>
-      </c>
-      <c r="W6" t="n">
-        <v>24.02485847473145</v>
-      </c>
-      <c r="X6" t="n">
-        <v>24.11011695861816</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>23.91843605041504</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0.1221317946910858</v>
+        <v>0.0895870178937912</v>
       </c>
     </row>
   </sheetData>
